--- a/zavod/data/excel_dir/Документ 01-02.05.24.xlsx
+++ b/zavod/data/excel_dir/Документ 01-02.05.24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grish\PythonProjects\uploaded_projects\ZAVOD_project\zavod\data\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grish\PythonProjects\uploaded_projects\ZAVOD_project\zavod\data\excel_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AA4E95-0F83-4F85-9963-AB18422E2B94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD8D1A-0279-494E-8CD2-D700219FD9AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     </r>
   </si>
   <si>
-    <t>оборудование 1 выведено в ремонт</t>
-  </si>
-  <si>
     <t>Отчет о состоянии электроснабжения и электрооборудования, и устранении выявленных неисправностей и отказов в работе</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t xml:space="preserve">Документ за 01-02.05.2024 г.  Сменный мастер: Федоров Я. С. Соколов З. П. </t>
+  </si>
+  <si>
+    <t>Оборудование 1 выведено в ремонт</t>
   </si>
 </sst>
 </file>
@@ -300,24 +300,24 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -651,8 +651,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>32</v>
+      <c r="A1" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -661,29 +661,29 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -692,20 +692,20 @@
       <c r="B5" s="2">
         <v>4800</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -714,34 +714,34 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -768,19 +768,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -788,19 +788,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -808,19 +808,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="7"/>
@@ -851,17 +851,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.27" top="0.3" bottom="0.59" header="0.49" footer="0.49"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
